--- a/biology/Botanique/Centaurée_du_solstice/Centaurée_du_solstice.xlsx
+++ b/biology/Botanique/Centaurée_du_solstice/Centaurée_du_solstice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_du_solstice</t>
+          <t>Centaurée_du_solstice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea solstitialis
 La Centaurée du solstice (Centaurea solstitialis) est une espèce de plante à fleurs du genre Centaurea et de la famille des Astéracées (ou Composées) poussant surtout dans les régions méridionales de l'Europe, facilement reconnaissable à ses capitules jaunes et à ses bractées terminées par de très longues épines.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_du_solstice</t>
+          <t>Centaurée_du_solstice</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée bisannuelle assez grande, de couleur gris argenté, duveteuse, à tiges érigées ramifiées. Feuilles inférieures pétiolées et pennatilobées, feuilles supérieures sessiles et entières, ondulées et étroites. Inflorescence en cyme. Capitules de 1 à 2 cm, jaune pâle à doré, à fleurons tubulés ayant tous la même taille. Un certain nombre des bractées se terminent par une longue épine horizontale, ligneuse, de couleur blanchâtre ou jaune paille.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_du_solstice</t>
+          <t>Centaurée_du_solstice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante doit son nom au fait qu'elle commence à fleurir fin juin, au moment du solstice d'été.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_du_solstice</t>
+          <t>Centaurée_du_solstice</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : cyme de capitules
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centaur%C3%A9e_du_solstice</t>
+          <t>Centaurée_du_solstice</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Plante invasive</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante, introduite aux États-Unis, s'y est largement développée dans la plupart des états et y est considérée comme une adventice particulièrement nuisible.
 </t>
